--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll4-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll4-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dll4</t>
+  </si>
+  <si>
+    <t>Notch4</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll4</t>
-  </si>
-  <si>
-    <t>Notch4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H2">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I2">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J2">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N2">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O2">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P2">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q2">
-        <v>1827.108437538589</v>
+        <v>603.4200661133573</v>
       </c>
       <c r="R2">
-        <v>16443.9759378473</v>
+        <v>5430.780595020216</v>
       </c>
       <c r="S2">
-        <v>0.838881191520114</v>
+        <v>0.77132735384211</v>
       </c>
       <c r="T2">
-        <v>0.8535035931950257</v>
+        <v>0.7757437151443727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H3">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I3">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J3">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.217391</v>
       </c>
       <c r="O3">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P3">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q3">
-        <v>170.958593319492</v>
+        <v>89.25683728773899</v>
       </c>
       <c r="R3">
-        <v>1538.627339875428</v>
+        <v>803.3115355896509</v>
       </c>
       <c r="S3">
-        <v>0.07849230265591674</v>
+        <v>0.1140933886420247</v>
       </c>
       <c r="T3">
-        <v>0.07986048922324666</v>
+        <v>0.1147466490559498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H4">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I4">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J4">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N4">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O4">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P4">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q4">
-        <v>25.40864672279244</v>
+        <v>27.60404666103789</v>
       </c>
       <c r="R4">
-        <v>228.677820505132</v>
+        <v>248.436419949341</v>
       </c>
       <c r="S4">
-        <v>0.01166588441047555</v>
+        <v>0.03528513130750389</v>
       </c>
       <c r="T4">
-        <v>0.01186923054514565</v>
+        <v>0.0354871621154034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H5">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I5">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J5">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N5">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O5">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P5">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q5">
-        <v>88.54833105740934</v>
+        <v>6.992772907646501</v>
       </c>
       <c r="R5">
-        <v>531.2899863444561</v>
+        <v>41.956637445879</v>
       </c>
       <c r="S5">
-        <v>0.04065523859362519</v>
+        <v>0.008938577494803628</v>
       </c>
       <c r="T5">
-        <v>0.02757592896556452</v>
+        <v>0.005993171191094772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H6">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I6">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J6">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N6">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O6">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P6">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q6">
-        <v>20.24470395117734</v>
+        <v>34.31306253415222</v>
       </c>
       <c r="R6">
-        <v>182.202335560596</v>
+        <v>308.81756280737</v>
       </c>
       <c r="S6">
-        <v>0.009294960837362408</v>
+        <v>0.04386099371397854</v>
       </c>
       <c r="T6">
-        <v>0.009456979788663722</v>
+        <v>0.0441121270289742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.437953</v>
       </c>
       <c r="I7">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J7">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N7">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O7">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P7">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q7">
-        <v>6.87391442568611</v>
+        <v>4.348194754818667</v>
       </c>
       <c r="R7">
-        <v>61.86522983117499</v>
+        <v>39.133752793368</v>
       </c>
       <c r="S7">
-        <v>0.003156023695887003</v>
+        <v>0.005558120689997688</v>
       </c>
       <c r="T7">
-        <v>0.003211035831864416</v>
+        <v>0.005589944621829407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.437953</v>
       </c>
       <c r="I8">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J8">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>13.217391</v>
       </c>
       <c r="O8">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P8">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q8">
         <v>0.6431773378469999</v>
@@ -948,10 +948,10 @@
         <v>5.788596040622999</v>
       </c>
       <c r="S8">
-        <v>0.0002953023260396557</v>
+        <v>0.0008221474589801639</v>
       </c>
       <c r="T8">
-        <v>0.0003004496928784126</v>
+        <v>0.0008268547991315374</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.437953</v>
       </c>
       <c r="I9">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J9">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N9">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O9">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P9">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q9">
-        <v>0.09559195264855555</v>
+        <v>0.1989124618881111</v>
       </c>
       <c r="R9">
-        <v>0.860327573837</v>
+        <v>1.790212156993</v>
       </c>
       <c r="S9">
-        <v>4.38891800234823E-05</v>
+        <v>0.0002542617183127514</v>
       </c>
       <c r="T9">
-        <v>4.465420518553527E-05</v>
+        <v>0.0002557175354931092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.437953</v>
       </c>
       <c r="I10">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J10">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N10">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O10">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P10">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q10">
-        <v>0.3331349348076666</v>
+        <v>0.0503893393445</v>
       </c>
       <c r="R10">
-        <v>1.998809608846</v>
+        <v>0.302336036067</v>
       </c>
       <c r="S10">
-        <v>0.0001529524057285345</v>
+        <v>6.441064518915732E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001037456628318405</v>
+        <v>4.318629260325782E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.437953</v>
       </c>
       <c r="I11">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J11">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N11">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O11">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P11">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q11">
-        <v>0.07616426024566667</v>
+        <v>0.2472570716677778</v>
       </c>
       <c r="R11">
-        <v>0.6854783422109999</v>
+        <v>2.22531364501</v>
       </c>
       <c r="S11">
-        <v>3.496933409831264E-05</v>
+        <v>0.000316058668775573</v>
       </c>
       <c r="T11">
-        <v>3.557887887611739E-05</v>
+        <v>0.0003178683145337226</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H12">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I12">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J12">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N12">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O12">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P12">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q12">
-        <v>11.152333766275</v>
+        <v>7.164111861349334</v>
       </c>
       <c r="R12">
-        <v>100.371003896475</v>
+        <v>64.47700675214401</v>
       </c>
       <c r="S12">
-        <v>0.005120376462541065</v>
+        <v>0.009157593117901677</v>
       </c>
       <c r="T12">
-        <v>0.005209628912254908</v>
+        <v>0.009210026419620218</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H13">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I13">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J13">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.217391</v>
       </c>
       <c r="O13">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P13">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q13">
-        <v>1.043499802059</v>
+        <v>1.059702854826</v>
       </c>
       <c r="R13">
-        <v>9.391498218530998</v>
+        <v>9.537325693434001</v>
       </c>
       <c r="S13">
-        <v>0.0004791025750401139</v>
+        <v>0.001354575104100561</v>
       </c>
       <c r="T13">
-        <v>0.0004874537341393258</v>
+        <v>0.001362330946079922</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H14">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I14">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J14">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N14">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O14">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P14">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q14">
-        <v>0.155089705121</v>
+        <v>0.3277293699882223</v>
       </c>
       <c r="R14">
-        <v>1.395807346089</v>
+        <v>2.949564329894</v>
       </c>
       <c r="S14">
-        <v>7.120641224758168E-05</v>
+        <v>0.0004189231381673498</v>
       </c>
       <c r="T14">
-        <v>7.244759964364991E-05</v>
+        <v>0.0004213217513201298</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H15">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I15">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J15">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N15">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O15">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P15">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q15">
-        <v>0.5404827223769999</v>
+        <v>0.08302177893100002</v>
       </c>
       <c r="R15">
-        <v>3.242896334261999</v>
+        <v>0.4981306735860001</v>
       </c>
       <c r="S15">
-        <v>0.0002481520969573415</v>
+        <v>0.0001061233668720639</v>
       </c>
       <c r="T15">
-        <v>0.0001683183972120268</v>
+        <v>7.115399574589777E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H16">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I16">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J16">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N16">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O16">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P16">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q16">
-        <v>0.123569948463</v>
+        <v>0.4073822401755556</v>
       </c>
       <c r="R16">
-        <v>1.112129536167</v>
+        <v>3.66644016158</v>
       </c>
       <c r="S16">
-        <v>5.673473094041863E-05</v>
+        <v>0.0005207401658695463</v>
       </c>
       <c r="T16">
-        <v>5.772366481224085E-05</v>
+        <v>0.0005237217491177281</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H17">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I17">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J17">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N17">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O17">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P17">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q17">
-        <v>18.67701720123333</v>
+        <v>4.910145062552</v>
       </c>
       <c r="R17">
-        <v>112.0621032074</v>
+        <v>29.460870375312</v>
       </c>
       <c r="S17">
-        <v>0.008575188052286237</v>
+        <v>0.006276438936599194</v>
       </c>
       <c r="T17">
-        <v>0.005816440507454839</v>
+        <v>0.004208250478262278</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H18">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I18">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J18">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>13.217391</v>
       </c>
       <c r="O18">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P18">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q18">
-        <v>1.747568191644</v>
+        <v>0.726300041247</v>
       </c>
       <c r="R18">
-        <v>10.485409149864</v>
+        <v>4.357800247481999</v>
       </c>
       <c r="S18">
-        <v>0.0008023618394778539</v>
+        <v>0.0009283998335004374</v>
       </c>
       <c r="T18">
-        <v>0.0005442317855094411</v>
+        <v>0.0006224770260353649</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H19">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I19">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J19">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N19">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O19">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P19">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q19">
-        <v>0.2597315639026667</v>
+        <v>0.2246194335103333</v>
       </c>
       <c r="R19">
-        <v>1.558389383416</v>
+        <v>1.347716601062</v>
       </c>
       <c r="S19">
-        <v>0.0001192506801049951</v>
+        <v>0.0002871218956753947</v>
       </c>
       <c r="T19">
-        <v>8.0886212882446E-05</v>
+        <v>0.0001925105727946814</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H20">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I20">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J20">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N20">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O20">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P20">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q20">
-        <v>0.905156294132</v>
+        <v>0.0569015372445</v>
       </c>
       <c r="R20">
-        <v>3.620625176528</v>
+        <v>0.227606148978</v>
       </c>
       <c r="S20">
-        <v>0.0004155848525095249</v>
+        <v>7.273492317722066E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001879239308947545</v>
+        <v>3.251172396097141E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H21">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I21">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J21">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N21">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O21">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P21">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q21">
-        <v>0.206944851308</v>
+        <v>0.2792119852233333</v>
       </c>
       <c r="R21">
-        <v>1.241669107848</v>
+        <v>1.67527191134</v>
       </c>
       <c r="S21">
-        <v>9.501469090585454E-05</v>
+        <v>0.0003569053364606841</v>
       </c>
       <c r="T21">
-        <v>6.444725102451502E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.053283</v>
-      </c>
-      <c r="H22">
-        <v>0.159849</v>
-      </c>
-      <c r="I22">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J22">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>47.08665833333333</v>
-      </c>
-      <c r="N22">
-        <v>141.259975</v>
-      </c>
-      <c r="O22">
-        <v>0.8568847006715773</v>
-      </c>
-      <c r="P22">
-        <v>0.8689126983340025</v>
-      </c>
-      <c r="Q22">
-        <v>2.508918415975</v>
-      </c>
-      <c r="R22">
-        <v>22.580265743775</v>
-      </c>
-      <c r="S22">
-        <v>0.001151920940748988</v>
-      </c>
-      <c r="T22">
-        <v>0.001171999887402747</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.053283</v>
-      </c>
-      <c r="H23">
-        <v>0.159849</v>
-      </c>
-      <c r="I23">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J23">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.405797</v>
-      </c>
-      <c r="N23">
-        <v>13.217391</v>
-      </c>
-      <c r="O23">
-        <v>0.0801768521528777</v>
-      </c>
-      <c r="P23">
-        <v>0.08130228593588212</v>
-      </c>
-      <c r="Q23">
-        <v>0.234754081551</v>
-      </c>
-      <c r="R23">
-        <v>2.112786733959</v>
-      </c>
-      <c r="S23">
-        <v>0.0001077827564033422</v>
-      </c>
-      <c r="T23">
-        <v>0.0001096615001082796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.053283</v>
-      </c>
-      <c r="H24">
-        <v>0.159849</v>
-      </c>
-      <c r="I24">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J24">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.6548096666666666</v>
-      </c>
-      <c r="N24">
-        <v>1.964429</v>
-      </c>
-      <c r="O24">
-        <v>0.01191624984823596</v>
-      </c>
-      <c r="P24">
-        <v>0.01208351695570926</v>
-      </c>
-      <c r="Q24">
-        <v>0.034890223469</v>
-      </c>
-      <c r="R24">
-        <v>0.314012011221</v>
-      </c>
-      <c r="S24">
-        <v>1.601916538435317E-05</v>
-      </c>
-      <c r="T24">
-        <v>1.62983928519787E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.053283</v>
-      </c>
-      <c r="H25">
-        <v>0.159849</v>
-      </c>
-      <c r="I25">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J25">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.281991</v>
-      </c>
-      <c r="N25">
-        <v>4.563982</v>
-      </c>
-      <c r="O25">
-        <v>0.04152775423406879</v>
-      </c>
-      <c r="P25">
-        <v>0.0280737832126037</v>
-      </c>
-      <c r="Q25">
-        <v>0.121591326453</v>
-      </c>
-      <c r="R25">
-        <v>0.7295479587180002</v>
-      </c>
-      <c r="S25">
-        <v>5.582628524818989E-05</v>
-      </c>
-      <c r="T25">
-        <v>3.786625610055617E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.053283</v>
-      </c>
-      <c r="H26">
-        <v>0.159849</v>
-      </c>
-      <c r="I26">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J26">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.521729</v>
-      </c>
-      <c r="N26">
-        <v>1.565187</v>
-      </c>
-      <c r="O26">
-        <v>0.009494443093240277</v>
-      </c>
-      <c r="P26">
-        <v>0.009627715561802291</v>
-      </c>
-      <c r="Q26">
-        <v>0.027799286307</v>
-      </c>
-      <c r="R26">
-        <v>0.250193576763</v>
-      </c>
-      <c r="S26">
-        <v>1.27634999332832E-05</v>
-      </c>
-      <c r="T26">
-        <v>1.29859784256952E-05</v>
+        <v>0.0002392992376770965</v>
       </c>
     </row>
   </sheetData>
